--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_121.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_121.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>schubert-winterreise_143</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[('0:01:27.680000', '0:01:38.020000'), ('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:25.480000', '0:00:32.760000'), ('0:01:14.800000', '0:01:21.060000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>schubert-winterreise_93</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>0.1001011122345804</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[(16.26, 21.14)]</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[('0:00:03.340000', '0:00:06.820000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1306715063520871</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(118.44, 122.34)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:44.310045', '0:00:50.196303')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[('0:01:20.200000', '0:01:26.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[('0:01:27.680000', '0:01:38.020000'), ('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:25.480000', '0:00:32.800000'), ('0:01:14.500000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.75</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1504237288135593</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G/2', 'D/5', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.342335, 11.17517)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.475578, 32.351768)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(21.02, 31.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.3, 43.48)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
